--- a/SATNET.WebApp/wwwroot/Uploads/AirMAC/Hardware Sheet.xlsx
+++ b/SATNET.WebApp/wwwroot/Uploads/AirMAC/Hardware Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects Works\Universal Satnet\domain\dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects Works\Universal Satnet\email docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D7AFA8-E2E3-4FBC-ABEC-488C995B9659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569E866D-E586-4294-B2CE-C2B9AD579937}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Tranciver" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Modems!$A$1:$E$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Modems!$A$1:$D$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tranciver!$A$1:$C$188</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="264">
   <si>
     <t>Air-mac number</t>
   </si>
@@ -819,12 +819,6 @@
   </si>
   <si>
     <t>Sr.no</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Not registered (by default)</t>
   </si>
   <si>
     <t xml:space="preserve">Serial number </t>
@@ -902,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -910,11 +904,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1196,12 +1188,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,15 +1201,14 @@
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1225,11 +1216,8 @@
       <c r="D1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1242,11 +1230,8 @@
       <c r="D2" s="2">
         <v>2210</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1259,9 +1244,8 @@
       <c r="D3" s="2">
         <v>2210</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1274,9 +1258,8 @@
       <c r="D4" s="2">
         <v>2210</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1289,9 +1272,8 @@
       <c r="D5" s="2">
         <v>2210</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1304,9 +1286,8 @@
       <c r="D6" s="2">
         <v>2210</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1319,9 +1300,8 @@
       <c r="D7" s="2">
         <v>2210</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1334,9 +1314,8 @@
       <c r="D8" s="2">
         <v>2210</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1349,9 +1328,8 @@
       <c r="D9" s="2">
         <v>2210</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1364,9 +1342,8 @@
       <c r="D10" s="2">
         <v>2210</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1379,9 +1356,8 @@
       <c r="D11" s="2">
         <v>2510</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1394,9 +1370,8 @@
       <c r="D12" s="2">
         <v>2510</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1409,9 +1384,8 @@
       <c r="D13" s="2">
         <v>2510</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1424,9 +1398,8 @@
       <c r="D14" s="2">
         <v>2510</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1439,9 +1412,8 @@
       <c r="D15" s="2">
         <v>2510</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1454,9 +1426,8 @@
       <c r="D16" s="2">
         <v>2510</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1469,24 +1440,22 @@
       <c r="D17" s="2">
         <v>2510</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>7293400300458</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>2510</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1499,9 +1468,8 @@
       <c r="D19" s="2">
         <v>2510</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1514,9 +1482,8 @@
       <c r="D20" s="2">
         <v>2510</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1529,9 +1496,8 @@
       <c r="D21" s="2">
         <v>2510</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1544,9 +1510,8 @@
       <c r="D22" s="2">
         <v>2510</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1559,9 +1524,8 @@
       <c r="D23" s="2">
         <v>2510</v>
       </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1574,9 +1538,8 @@
       <c r="D24" s="2">
         <v>2510</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1589,9 +1552,8 @@
       <c r="D25" s="2">
         <v>2510</v>
       </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1604,9 +1566,8 @@
       <c r="D26" s="2">
         <v>2510</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1619,9 +1580,8 @@
       <c r="D27" s="2">
         <v>2510</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1634,9 +1594,8 @@
       <c r="D28" s="2">
         <v>2510</v>
       </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1649,9 +1608,8 @@
       <c r="D29" s="2">
         <v>2510</v>
       </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1664,9 +1622,8 @@
       <c r="D30" s="2">
         <v>2510</v>
       </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1679,9 +1636,8 @@
       <c r="D31" s="2">
         <v>2510</v>
       </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1694,9 +1650,8 @@
       <c r="D32" s="2">
         <v>2510</v>
       </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1709,9 +1664,8 @@
       <c r="D33" s="2">
         <v>2510</v>
       </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1724,9 +1678,8 @@
       <c r="D34" s="2">
         <v>2510</v>
       </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1739,9 +1692,8 @@
       <c r="D35" s="2">
         <v>2510</v>
       </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1754,9 +1706,8 @@
       <c r="D36" s="2">
         <v>2510</v>
       </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1769,9 +1720,8 @@
       <c r="D37" s="2">
         <v>2510</v>
       </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1784,9 +1734,8 @@
       <c r="D38" s="2">
         <v>2510</v>
       </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1799,9 +1748,8 @@
       <c r="D39" s="2">
         <v>2510</v>
       </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1814,9 +1762,8 @@
       <c r="D40" s="2">
         <v>2510</v>
       </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1829,9 +1776,8 @@
       <c r="D41" s="2">
         <v>2510</v>
       </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1844,9 +1790,8 @@
       <c r="D42" s="2">
         <v>2510</v>
       </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1859,10 +1804,9 @@
       <c r="D43" s="2">
         <v>2510</v>
       </c>
-      <c r="E43" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E43" xr:uid="{93B8386B-C1D6-43F1-9A68-1485C4018D52}"/>
+  <autoFilter ref="A1:D43" xr:uid="{93B8386B-C1D6-43F1-9A68-1485C4018D52}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1889,7 +1833,7 @@
         <v>262</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>260</v>
